--- a/Atlas/1-s2.0-S0092867420304025-mmc2 (1).xlsx
+++ b/Atlas/1-s2.0-S0092867420304025-mmc2 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julieha\Dropbox\Mesoscale Connectome Papers\2019 CCF\Resubmission files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c26aeee6f08e21e/KwanLab/Lightsheet_cFos_Pipeline/Atlas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4713BAB5-1039-4853-AB74-82AB9FDB68C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4713BAB5-1039-4853-AB74-82AB9FDB68C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E59598B-91E7-40B3-B25B-354C9F182A37}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11100" tabRatio="340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCFv3 ontology" sheetId="3" r:id="rId1"/>
@@ -8053,30 +8053,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K841"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O8:O9"/>
+    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.69140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.15234375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" customWidth="1"/>
-    <col min="9" max="11" width="15.765625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.15234375" style="1"/>
+    <col min="9" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2525</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2517</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>506032520</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>449594328</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>275860156</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>221533548</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>212625646</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>24450362</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>18</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>19</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>20</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>21</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>22</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>23</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>24</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>25</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>26</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>27</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>28</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>29</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>33320260</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>37</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>24302098</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>46</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>47</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>48</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>49</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>50</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>51</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>52</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>53</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>54</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>55</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>56</v>
       </c>
@@ -9244,7 +9244,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>57</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>65</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>66</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>67</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>68</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>69</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>70</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>71</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>72</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>73</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>74</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>75</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>76</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>77</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>78</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>79</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>80</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>81</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>82</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>83</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>84</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>85</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>86</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>87</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>88</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>89</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>90</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>91</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>92</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>93</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>94</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>95</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>96</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>97</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>98</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>99</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>100</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>101</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>102</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>103</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>104</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>105</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>106</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>107</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>108</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>109</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>110</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>111</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>112</v>
       </c>
@@ -10665,7 +10665,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>113</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>114</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>115</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>116</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>117</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>118</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>119</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>120</v>
       </c>
@@ -10897,7 +10897,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>121</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>5794248</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>122</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>123</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>124</v>
       </c>
@@ -11010,7 +11010,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>125</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>126</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>127</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>128</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>136</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>137</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>138</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>139</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>140</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>141</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>142</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>143</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>144</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>145</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>146</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>147</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>148</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>149</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>150</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>151</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>152</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>153</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>154</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>155</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>156</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>157</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>13468260</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>164</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>165</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>166</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>167</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>168</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>169</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>170</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>171</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>172</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>173</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>174</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>175</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>176</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>177</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>178</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>179</v>
       </c>
@@ -12225,7 +12225,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>180</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>181</v>
       </c>
@@ -12283,7 +12283,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>182</v>
       </c>
@@ -12312,7 +12312,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>183</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>184</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>185</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>186</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>187</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>188</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>189</v>
       </c>
@@ -12515,7 +12515,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>190</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>191</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>192</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>193</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>194</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>195</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>196</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>197</v>
       </c>
@@ -12747,7 +12747,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>198</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>199</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>200</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>201</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>202</v>
       </c>
@@ -12892,7 +12892,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>203</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>204</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>205</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>206</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>207</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>208</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>209</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>210</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>211</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>212</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>213</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>214</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>215</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>216</v>
       </c>
@@ -13298,7 +13298,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>217</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>218</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>219</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>220</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>5539862</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>226</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>227</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>228</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>229</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>230</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>231</v>
       </c>
@@ -13585,7 +13585,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>232</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>233</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>234</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>235</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>236</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>237</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>238</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>239</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>241</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>242</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>243</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>244</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>245</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>246</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>248</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>249</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>250</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>251</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>252</v>
       </c>
@@ -14133,7 +14133,7 @@
         <v>5904280</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>258</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>259</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>260</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>261</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>262</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>263</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>264</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>265</v>
       </c>
@@ -14365,7 +14365,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>267</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>268</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>269</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>270</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>272</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>273</v>
       </c>
@@ -14539,7 +14539,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>274</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>275</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>276</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>277</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>278</v>
       </c>
@@ -14681,7 +14681,7 @@
         <v>7894106</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>279</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>280</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>281</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>282</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>283</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>284</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>285</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>286</v>
       </c>
@@ -14913,7 +14913,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>287</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>288</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>289</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>290</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>291</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>292</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>293</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>294</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>295</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>296</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>297</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>10503636</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>298</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>299</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>300</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>301</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>302</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>303</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>325</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>326</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>327</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>329</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>330</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>331</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>332</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>333</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>335</v>
       </c>
@@ -15664,7 +15664,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>336</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>337</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>338</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>339</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>2456828</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>346</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>347</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>348</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>349</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>350</v>
       </c>
@@ -15922,7 +15922,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>351</v>
       </c>
@@ -15951,7 +15951,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>352</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>353</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>354</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>355</v>
       </c>
@@ -16067,7 +16067,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>356</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>357</v>
       </c>
@@ -16125,7 +16125,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>358</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>359</v>
       </c>
@@ -16183,7 +16183,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>360</v>
       </c>
@@ -16212,7 +16212,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>361</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>362</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>363</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>364</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>365</v>
       </c>
@@ -16357,7 +16357,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>366</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>367</v>
       </c>
@@ -16415,7 +16415,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>368</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>369</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>370</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>371</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>372</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>373</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>374</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>375</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>376</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>377</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>378</v>
       </c>
@@ -16734,7 +16734,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>379</v>
       </c>
@@ -16763,7 +16763,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>380</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>386</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>387</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>388</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>389</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>390</v>
       </c>
@@ -16943,7 +16943,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>398</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>399</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>405</v>
       </c>
@@ -17030,7 +17030,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>410</v>
       </c>
@@ -17062,7 +17062,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>416</v>
       </c>
@@ -17094,7 +17094,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>421</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>423</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>424</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>425</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>426</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>3265152</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>427</v>
       </c>
@@ -17268,7 +17268,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>431</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>432</v>
       </c>
@@ -17326,7 +17326,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>438</v>
       </c>
@@ -17355,7 +17355,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>444</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>449</v>
       </c>
@@ -17419,7 +17419,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>454</v>
       </c>
@@ -17448,7 +17448,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>455</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>23715574</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>456</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>16931028</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>457</v>
       </c>
@@ -17532,7 +17532,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>462</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>467</v>
       </c>
@@ -17596,7 +17596,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>473</v>
       </c>
@@ -17625,7 +17625,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>474</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>475</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>476</v>
       </c>
@@ -17712,7 +17712,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>490</v>
       </c>
@@ -17744,7 +17744,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>491</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>492</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>18504594</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>493</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>11396888</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>494</v>
       </c>
@@ -17857,7 +17857,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>495</v>
       </c>
@@ -17886,7 +17886,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>496</v>
       </c>
@@ -17915,7 +17915,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>500</v>
       </c>
@@ -17944,7 +17944,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>503</v>
       </c>
@@ -17973,7 +17973,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>505</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>507</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>508</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>509</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>512</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>514</v>
       </c>
@@ -18147,7 +18147,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>516</v>
       </c>
@@ -18176,7 +18176,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>523</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>527</v>
       </c>
@@ -18240,7 +18240,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>531</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>535</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>544</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>553</v>
       </c>
@@ -18368,7 +18368,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>554</v>
       </c>
@@ -18400,7 +18400,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>555</v>
       </c>
@@ -18429,7 +18429,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>557</v>
       </c>
@@ -18461,7 +18461,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>558</v>
       </c>
@@ -18487,7 +18487,7 @@
         <v>2792504</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>559</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>560</v>
       </c>
@@ -18551,7 +18551,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>561</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>562</v>
       </c>
@@ -18612,7 +18612,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>563</v>
       </c>
@@ -18641,7 +18641,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>564</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>565</v>
       </c>
@@ -18699,7 +18699,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>566</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>567</v>
       </c>
@@ -18757,7 +18757,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>568</v>
       </c>
@@ -18786,7 +18786,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>569</v>
       </c>
@@ -18818,7 +18818,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>570</v>
       </c>
@@ -18844,7 +18844,7 @@
         <v>54326608</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>571</v>
       </c>
@@ -18873,7 +18873,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>572</v>
       </c>
@@ -18899,7 +18899,7 @@
         <v>26018770</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>573</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>574</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>8653520</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>575</v>
       </c>
@@ -18989,7 +18989,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>576</v>
       </c>
@@ -19021,7 +19021,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>577</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>585</v>
       </c>
@@ -19079,7 +19079,7 @@
         <v>3564062</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>586</v>
       </c>
@@ -19105,7 +19105,7 @@
         <v>3052752</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>587</v>
       </c>
@@ -19137,7 +19137,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>588</v>
       </c>
@@ -19169,7 +19169,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>589</v>
       </c>
@@ -19201,7 +19201,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>590</v>
       </c>
@@ -19233,7 +19233,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>591</v>
       </c>
@@ -19265,7 +19265,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>592</v>
       </c>
@@ -19291,7 +19291,7 @@
         <v>4047624</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>593</v>
       </c>
@@ -19323,7 +19323,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>594</v>
       </c>
@@ -19355,7 +19355,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>595</v>
       </c>
@@ -19384,7 +19384,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>596</v>
       </c>
@@ -19413,7 +19413,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>597</v>
       </c>
@@ -19442,7 +19442,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>598</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>599</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>600</v>
       </c>
@@ -19535,7 +19535,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>608</v>
       </c>
@@ -19564,7 +19564,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>609</v>
       </c>
@@ -19590,7 +19590,7 @@
         <v>1988394</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>610</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>611</v>
       </c>
@@ -19654,7 +19654,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>612</v>
       </c>
@@ -19680,7 +19680,7 @@
         <v>3391388</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>613</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>614</v>
       </c>
@@ -19744,7 +19744,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>615</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>1510950</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>616</v>
       </c>
@@ -19796,7 +19796,7 @@
         <v>1155100</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>617</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>618</v>
       </c>
@@ -19860,7 +19860,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>619</v>
       </c>
@@ -19892,7 +19892,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>620</v>
       </c>
@@ -19918,7 +19918,7 @@
         <v>1348458</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>621</v>
       </c>
@@ -19950,7 +19950,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>638</v>
       </c>
@@ -19982,7 +19982,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>639</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>119891782</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>640</v>
       </c>
@@ -20034,7 +20034,7 @@
         <v>35476954</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>641</v>
       </c>
@@ -20063,7 +20063,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>642</v>
       </c>
@@ -20089,7 +20089,7 @@
         <v>6680726</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>643</v>
       </c>
@@ -20115,7 +20115,7 @@
         <v>4859792</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>644</v>
       </c>
@@ -20147,7 +20147,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>645</v>
       </c>
@@ -20179,7 +20179,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>646</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>2834416</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>647</v>
       </c>
@@ -20237,7 +20237,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>648</v>
       </c>
@@ -20269,7 +20269,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>649</v>
       </c>
@@ -20301,7 +20301,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>650</v>
       </c>
@@ -20333,7 +20333,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>651</v>
       </c>
@@ -20365,7 +20365,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>652</v>
       </c>
@@ -20391,7 +20391,7 @@
         <v>204992</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>653</v>
       </c>
@@ -20423,7 +20423,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>654</v>
       </c>
@@ -20455,7 +20455,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>655</v>
       </c>
@@ -20487,7 +20487,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>656</v>
       </c>
@@ -20519,7 +20519,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>657</v>
       </c>
@@ -20545,7 +20545,7 @@
         <v>1422170</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>658</v>
       </c>
@@ -20574,7 +20574,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>659</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>660</v>
       </c>
@@ -20632,7 +20632,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>661</v>
       </c>
@@ -20661,7 +20661,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>662</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>663</v>
       </c>
@@ -20719,7 +20719,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>664</v>
       </c>
@@ -20748,7 +20748,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>665</v>
       </c>
@@ -20777,7 +20777,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>666</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>12674246</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>667</v>
       </c>
@@ -20829,7 +20829,7 @@
         <v>3075398</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>668</v>
       </c>
@@ -20861,7 +20861,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>669</v>
       </c>
@@ -20893,7 +20893,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>670</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>671</v>
       </c>
@@ -20957,7 +20957,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>672</v>
       </c>
@@ -20986,7 +20986,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>674</v>
       </c>
@@ -21012,7 +21012,7 @@
         <v>2158754</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>675</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>676</v>
       </c>
@@ -21073,7 +21073,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>677</v>
       </c>
@@ -21102,7 +21102,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>678</v>
       </c>
@@ -21131,7 +21131,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>679</v>
       </c>
@@ -21163,7 +21163,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>680</v>
       </c>
@@ -21195,7 +21195,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>681</v>
       </c>
@@ -21227,7 +21227,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>682</v>
       </c>
@@ -21259,7 +21259,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>683</v>
       </c>
@@ -21285,7 +21285,7 @@
         <v>2017460</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>684</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>685</v>
       </c>
@@ -21349,7 +21349,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>689</v>
       </c>
@@ -21381,7 +21381,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>690</v>
       </c>
@@ -21413,7 +21413,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>691</v>
       </c>
@@ -21439,7 +21439,7 @@
         <v>1186056</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>692</v>
       </c>
@@ -21471,7 +21471,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>693</v>
       </c>
@@ -21503,7 +21503,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>694</v>
       </c>
@@ -21535,7 +21535,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>695</v>
       </c>
@@ -21567,7 +21567,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>696</v>
       </c>
@@ -21593,7 +21593,7 @@
         <v>1600950</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>697</v>
       </c>
@@ -21625,7 +21625,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>698</v>
       </c>
@@ -21657,7 +21657,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>699</v>
       </c>
@@ -21689,7 +21689,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>700</v>
       </c>
@@ -21721,7 +21721,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>701</v>
       </c>
@@ -21753,7 +21753,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>702</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>703</v>
       </c>
@@ -21817,7 +21817,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>704</v>
       </c>
@@ -21843,7 +21843,7 @@
         <v>523522</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>705</v>
       </c>
@@ -21875,7 +21875,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>706</v>
       </c>
@@ -21907,7 +21907,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>707</v>
       </c>
@@ -21939,7 +21939,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>710</v>
       </c>
@@ -21971,7 +21971,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>711</v>
       </c>
@@ -21997,7 +21997,7 @@
         <v>664746</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>712</v>
       </c>
@@ -22029,7 +22029,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>713</v>
       </c>
@@ -22061,7 +22061,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>715</v>
       </c>
@@ -22090,7 +22090,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>716</v>
       </c>
@@ -22116,7 +22116,7 @@
         <v>782664</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>717</v>
       </c>
@@ -22148,7 +22148,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>718</v>
       </c>
@@ -22180,7 +22180,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>720</v>
       </c>
@@ -22212,7 +22212,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>731</v>
       </c>
@@ -22244,7 +22244,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>732</v>
       </c>
@@ -22276,7 +22276,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>733</v>
       </c>
@@ -22308,7 +22308,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>734</v>
       </c>
@@ -22334,7 +22334,7 @@
         <v>2045774</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>735</v>
       </c>
@@ -22366,7 +22366,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>737</v>
       </c>
@@ -22398,7 +22398,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>738</v>
       </c>
@@ -22430,7 +22430,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>739</v>
       </c>
@@ -22462,7 +22462,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>743</v>
       </c>
@@ -22494,7 +22494,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>744</v>
       </c>
@@ -22526,7 +22526,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>745</v>
       </c>
@@ -22558,7 +22558,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>746</v>
       </c>
@@ -22590,7 +22590,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>747</v>
       </c>
@@ -22622,7 +22622,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>749</v>
       </c>
@@ -22654,7 +22654,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>750</v>
       </c>
@@ -22686,7 +22686,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>751</v>
       </c>
@@ -22718,7 +22718,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>752</v>
       </c>
@@ -22750,7 +22750,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>753</v>
       </c>
@@ -22782,7 +22782,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>754</v>
       </c>
@@ -22814,7 +22814,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>755</v>
       </c>
@@ -22846,7 +22846,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>756</v>
       </c>
@@ -22872,7 +22872,7 @@
         <v>3847266</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>757</v>
       </c>
@@ -22904,7 +22904,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>762</v>
       </c>
@@ -22930,7 +22930,7 @@
         <v>1015810</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>763</v>
       </c>
@@ -22962,7 +22962,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>764</v>
       </c>
@@ -22991,7 +22991,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>765</v>
       </c>
@@ -23020,7 +23020,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>766</v>
       </c>
@@ -23049,7 +23049,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>767</v>
       </c>
@@ -23078,7 +23078,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>768</v>
       </c>
@@ -23107,7 +23107,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>769</v>
       </c>
@@ -23136,7 +23136,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>770</v>
       </c>
@@ -23168,7 +23168,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>773</v>
       </c>
@@ -23194,7 +23194,7 @@
         <v>143508</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>774</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>775</v>
       </c>
@@ -23258,7 +23258,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>776</v>
       </c>
@@ -23290,7 +23290,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>780</v>
       </c>
@@ -23322,7 +23322,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>781</v>
       </c>
@@ -23354,7 +23354,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>782</v>
       </c>
@@ -23386,7 +23386,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>787</v>
       </c>
@@ -23418,7 +23418,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>792</v>
       </c>
@@ -23450,7 +23450,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>793</v>
       </c>
@@ -23476,7 +23476,7 @@
         <v>5685588</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>794</v>
       </c>
@@ -23508,7 +23508,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>795</v>
       </c>
@@ -23540,7 +23540,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>796</v>
       </c>
@@ -23572,7 +23572,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>797</v>
       </c>
@@ -23604,7 +23604,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>798</v>
       </c>
@@ -23636,7 +23636,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>799</v>
       </c>
@@ -23668,7 +23668,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>800</v>
       </c>
@@ -23700,7 +23700,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>801</v>
       </c>
@@ -23732,7 +23732,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>802</v>
       </c>
@@ -23764,7 +23764,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>804</v>
       </c>
@@ -23793,7 +23793,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>805</v>
       </c>
@@ -23825,7 +23825,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>806</v>
       </c>
@@ -23854,7 +23854,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>807</v>
       </c>
@@ -23880,7 +23880,7 @@
         <v>6856862</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>808</v>
       </c>
@@ -23909,7 +23909,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>809</v>
       </c>
@@ -23938,7 +23938,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>810</v>
       </c>
@@ -23967,7 +23967,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>811</v>
       </c>
@@ -23996,7 +23996,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>812</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>813</v>
       </c>
@@ -24054,7 +24054,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>814</v>
       </c>
@@ -24083,7 +24083,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>815</v>
       </c>
@@ -24112,7 +24112,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>816</v>
       </c>
@@ -24144,7 +24144,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>817</v>
       </c>
@@ -24176,7 +24176,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>818</v>
       </c>
@@ -24208,7 +24208,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>819</v>
       </c>
@@ -24240,7 +24240,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>820</v>
       </c>
@@ -24272,7 +24272,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>821</v>
       </c>
@@ -24298,7 +24298,7 @@
         <v>21297964</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>822</v>
       </c>
@@ -24330,7 +24330,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>823</v>
       </c>
@@ -24362,7 +24362,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>824</v>
       </c>
@@ -24394,7 +24394,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>825</v>
       </c>
@@ -24426,7 +24426,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>826</v>
       </c>
@@ -24458,7 +24458,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>830</v>
       </c>
@@ -24487,7 +24487,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>831</v>
       </c>
@@ -24516,7 +24516,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>832</v>
       </c>
@@ -24545,7 +24545,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>833</v>
       </c>
@@ -24574,7 +24574,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>834</v>
       </c>
@@ -24603,7 +24603,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>838</v>
       </c>
@@ -24635,7 +24635,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>839</v>
       </c>
@@ -24664,7 +24664,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>840</v>
       </c>
@@ -24693,7 +24693,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>841</v>
       </c>
@@ -24722,7 +24722,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>842</v>
       </c>
@@ -24751,7 +24751,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>843</v>
       </c>
@@ -24777,7 +24777,7 @@
         <v>2080124</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>844</v>
       </c>
@@ -24809,7 +24809,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>845</v>
       </c>
@@ -24841,7 +24841,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>846</v>
       </c>
@@ -24873,7 +24873,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>847</v>
       </c>
@@ -24905,7 +24905,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>848</v>
       </c>
@@ -24937,7 +24937,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>849</v>
       </c>
@@ -24969,7 +24969,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>850</v>
       </c>
@@ -24998,7 +24998,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>852</v>
       </c>
@@ -25030,7 +25030,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>853</v>
       </c>
@@ -25062,7 +25062,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>854</v>
       </c>
@@ -25094,7 +25094,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>855</v>
       </c>
@@ -25126,7 +25126,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>856</v>
       </c>
@@ -25158,7 +25158,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>857</v>
       </c>
@@ -25190,7 +25190,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>858</v>
       </c>
@@ -25222,7 +25222,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>859</v>
       </c>
@@ -25254,7 +25254,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>860</v>
       </c>
@@ -25286,7 +25286,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>861</v>
       </c>
@@ -25318,7 +25318,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>862</v>
       </c>
@@ -25350,7 +25350,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>863</v>
       </c>
@@ -25382,7 +25382,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>865</v>
       </c>
@@ -25408,7 +25408,7 @@
         <v>1822778</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>866</v>
       </c>
@@ -25440,7 +25440,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>867</v>
       </c>
@@ -25472,7 +25472,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>868</v>
       </c>
@@ -25498,7 +25498,7 @@
         <v>733500</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>869</v>
       </c>
@@ -25530,7 +25530,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>870</v>
       </c>
@@ -25559,7 +25559,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>871</v>
       </c>
@@ -25588,7 +25588,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>872</v>
       </c>
@@ -25617,7 +25617,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>873</v>
       </c>
@@ -25646,7 +25646,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>874</v>
       </c>
@@ -25675,7 +25675,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>875</v>
       </c>
@@ -25704,7 +25704,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>876</v>
       </c>
@@ -25733,7 +25733,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>877</v>
       </c>
@@ -25762,7 +25762,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>878</v>
       </c>
@@ -25791,7 +25791,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>879</v>
       </c>
@@ -25823,7 +25823,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>880</v>
       </c>
@@ -25855,7 +25855,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>881</v>
       </c>
@@ -25887,7 +25887,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>882</v>
       </c>
@@ -25913,7 +25913,7 @@
         <v>47674342</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>883</v>
       </c>
@@ -25942,7 +25942,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>884</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>3850166</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>885</v>
       </c>
@@ -26000,7 +26000,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>889</v>
       </c>
@@ -26032,7 +26032,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>890</v>
       </c>
@@ -26064,7 +26064,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>891</v>
       </c>
@@ -26093,7 +26093,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>902</v>
       </c>
@@ -26122,7 +26122,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>903</v>
       </c>
@@ -26151,7 +26151,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>904</v>
       </c>
@@ -26180,7 +26180,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>905</v>
       </c>
@@ -26209,7 +26209,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>906</v>
       </c>
@@ -26235,7 +26235,7 @@
         <v>5794764</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>907</v>
       </c>
@@ -26267,7 +26267,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>908</v>
       </c>
@@ -26299,7 +26299,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>910</v>
       </c>
@@ -26331,7 +26331,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>911</v>
       </c>
@@ -26363,7 +26363,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>912</v>
       </c>
@@ -26395,7 +26395,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>913</v>
       </c>
@@ -26427,7 +26427,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>915</v>
       </c>
@@ -26459,7 +26459,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>917</v>
       </c>
@@ -26491,7 +26491,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>918</v>
       </c>
@@ -26523,7 +26523,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>919</v>
       </c>
@@ -26555,7 +26555,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>920</v>
       </c>
@@ -26587,7 +26587,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>921</v>
       </c>
@@ -26619,7 +26619,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>922</v>
       </c>
@@ -26651,7 +26651,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>923</v>
       </c>
@@ -26683,7 +26683,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>924</v>
       </c>
@@ -26709,7 +26709,7 @@
         <v>3462014</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>925</v>
       </c>
@@ -26741,7 +26741,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>928</v>
       </c>
@@ -26773,7 +26773,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>929</v>
       </c>
@@ -26805,7 +26805,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>930</v>
       </c>
@@ -26837,7 +26837,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>931</v>
       </c>
@@ -26869,7 +26869,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>932</v>
       </c>
@@ -26901,7 +26901,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>933</v>
       </c>
@@ -26933,7 +26933,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>934</v>
       </c>
@@ -26965,7 +26965,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>935</v>
       </c>
@@ -26994,7 +26994,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>936</v>
       </c>
@@ -27020,7 +27020,7 @@
         <v>7933114</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>937</v>
       </c>
@@ -27052,7 +27052,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>938</v>
       </c>
@@ -27078,7 +27078,7 @@
         <v>1629282</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>941</v>
       </c>
@@ -27110,7 +27110,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>942</v>
       </c>
@@ -27142,7 +27142,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>943</v>
       </c>
@@ -27168,7 +27168,7 @@
         <v>414748</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>944</v>
       </c>
@@ -27200,7 +27200,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>945</v>
       </c>
@@ -27232,7 +27232,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>946</v>
       </c>
@@ -27264,7 +27264,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>947</v>
       </c>
@@ -27296,7 +27296,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>948</v>
       </c>
@@ -27328,7 +27328,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>954</v>
       </c>
@@ -27360,7 +27360,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>955</v>
       </c>
@@ -27392,7 +27392,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>956</v>
       </c>
@@ -27424,7 +27424,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>962</v>
       </c>
@@ -27456,7 +27456,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>964</v>
       </c>
@@ -27482,7 +27482,7 @@
         <v>17489144</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>965</v>
       </c>
@@ -27514,7 +27514,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>967</v>
       </c>
@@ -27546,7 +27546,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>968</v>
       </c>
@@ -27578,7 +27578,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>970</v>
       </c>
@@ -27607,7 +27607,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>971</v>
       </c>
@@ -27636,7 +27636,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>972</v>
       </c>
@@ -27665,7 +27665,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>973</v>
       </c>
@@ -27697,7 +27697,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>975</v>
       </c>
@@ -27729,7 +27729,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>976</v>
       </c>
@@ -27761,7 +27761,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>977</v>
       </c>
@@ -27793,7 +27793,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>978</v>
       </c>
@@ -27825,7 +27825,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>979</v>
       </c>
@@ -27857,7 +27857,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>980</v>
       </c>
@@ -27889,7 +27889,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>981</v>
       </c>
@@ -27918,7 +27918,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>982</v>
       </c>
@@ -27947,7 +27947,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>983</v>
       </c>
@@ -27976,7 +27976,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>984</v>
       </c>
@@ -28008,7 +28008,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>985</v>
       </c>
@@ -28037,7 +28037,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>986</v>
       </c>
@@ -28069,7 +28069,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>987</v>
       </c>
@@ -28101,7 +28101,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>988</v>
       </c>
@@ -28133,7 +28133,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>989</v>
       </c>
@@ -28165,7 +28165,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>990</v>
       </c>
@@ -28191,7 +28191,7 @@
         <v>947002</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>991</v>
       </c>
@@ -28223,7 +28223,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>992</v>
       </c>
@@ -28255,7 +28255,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>993</v>
       </c>
@@ -28281,7 +28281,7 @@
         <v>274030</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>995</v>
       </c>
@@ -28313,7 +28313,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>996</v>
       </c>
@@ -28345,7 +28345,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>998</v>
       </c>
@@ -28377,7 +28377,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>1001</v>
       </c>
@@ -28403,7 +28403,7 @@
         <v>3207466</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>1002</v>
       </c>
@@ -28435,7 +28435,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>1003</v>
       </c>
@@ -28467,7 +28467,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>1004</v>
       </c>
@@ -28499,7 +28499,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>1005</v>
       </c>
@@ -28531,7 +28531,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>1006</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>1007</v>
       </c>
@@ -28595,7 +28595,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>1008</v>
       </c>
@@ -28627,7 +28627,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>1010</v>
       </c>
@@ -28653,7 +28653,7 @@
         <v>223536</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>1011</v>
       </c>
@@ -28685,7 +28685,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>1012</v>
       </c>
@@ -28717,7 +28717,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>1013</v>
       </c>
@@ -28749,7 +28749,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>1014</v>
       </c>
@@ -28778,7 +28778,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>1015</v>
       </c>
@@ -28804,7 +28804,7 @@
         <v>51231088</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>1016</v>
       </c>
@@ -28830,7 +28830,7 @@
         <v>20273620</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>1017</v>
       </c>
@@ -28862,7 +28862,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>1021</v>
       </c>
@@ -28891,7 +28891,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>1022</v>
       </c>
@@ -28920,7 +28920,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>1026</v>
       </c>
@@ -28949,7 +28949,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>1030</v>
       </c>
@@ -28978,7 +28978,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>1039</v>
       </c>
@@ -29007,7 +29007,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>1043</v>
       </c>
@@ -29039,7 +29039,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>1047</v>
       </c>
@@ -29071,7 +29071,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>1051</v>
       </c>
@@ -29103,7 +29103,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>1055</v>
       </c>
@@ -29135,7 +29135,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>1059</v>
       </c>
@@ -29167,7 +29167,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>1063</v>
       </c>
@@ -29193,7 +29193,7 @@
         <v>30957468</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>1064</v>
       </c>
@@ -29225,7 +29225,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>1068</v>
       </c>
@@ -29254,7 +29254,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>1069</v>
       </c>
@@ -29283,7 +29283,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>1073</v>
       </c>
@@ -29312,7 +29312,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>1077</v>
       </c>
@@ -29344,7 +29344,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>1081</v>
       </c>
@@ -29376,7 +29376,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>1085</v>
       </c>
@@ -29408,7 +29408,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>1089</v>
       </c>
@@ -29440,7 +29440,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>1096</v>
       </c>
@@ -29466,7 +29466,7 @@
         <v>1782040</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>1097</v>
       </c>
@@ -29498,7 +29498,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>1098</v>
       </c>
@@ -29530,7 +29530,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>1099</v>
       </c>
@@ -29562,7 +29562,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>1100</v>
       </c>
@@ -29594,7 +29594,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>1101</v>
       </c>
@@ -29623,7 +29623,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>1102</v>
       </c>
@@ -29649,7 +29649,7 @@
         <v>12354320</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>1104</v>
       </c>
@@ -29678,7 +29678,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>1105</v>
       </c>
@@ -29704,7 +29704,7 @@
         <v>5973186</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>1106</v>
       </c>
@@ -29733,7 +29733,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>1107</v>
       </c>
@@ -29759,7 +29759,7 @@
         <v>1061954</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>1108</v>
       </c>
@@ -29788,7 +29788,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>1109</v>
       </c>
@@ -29817,7 +29817,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>1111</v>
       </c>
@@ -29846,7 +29846,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>1112</v>
       </c>
@@ -29875,7 +29875,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>1114</v>
       </c>
@@ -29904,7 +29904,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>1115</v>
       </c>
@@ -29933,7 +29933,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>1116</v>
       </c>
@@ -29962,7 +29962,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>1117</v>
       </c>
@@ -29991,7 +29991,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>1119</v>
       </c>
@@ -30020,7 +30020,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>1120</v>
       </c>
@@ -30049,7 +30049,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>1121</v>
       </c>
@@ -30078,7 +30078,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>1122</v>
       </c>
@@ -30107,7 +30107,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>1125</v>
       </c>
@@ -30133,7 +30133,7 @@
         <v>2377594</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>1126</v>
       </c>
@@ -30162,7 +30162,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>1127</v>
       </c>
@@ -30191,7 +30191,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>1129</v>
       </c>
@@ -30220,7 +30220,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>1130</v>
       </c>
@@ -30249,7 +30249,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>1132</v>
       </c>
@@ -30278,7 +30278,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>1133</v>
       </c>
@@ -30304,7 +30304,7 @@
         <v>1661226</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>1135</v>
       </c>
@@ -30333,7 +30333,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>1136</v>
       </c>
@@ -30359,7 +30359,7 @@
         <v>1411070</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>1137</v>
       </c>
@@ -30388,7 +30388,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>1139</v>
       </c>
@@ -30417,7 +30417,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>1140</v>
       </c>
@@ -30446,7 +30446,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>1141</v>
       </c>
@@ -30475,7 +30475,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>1142</v>
       </c>
@@ -30504,7 +30504,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>1144</v>
       </c>
@@ -30530,7 +30530,7 @@
         <v>9312</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>1145</v>
       </c>
@@ -30559,7 +30559,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>1149</v>
       </c>
@@ -30585,7 +30585,7 @@
         <v>687986</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>1150</v>
       </c>
@@ -30611,7 +30611,7 @@
         <v>687986</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>1155</v>
       </c>
@@ -30637,7 +30637,7 @@
         <v>22312</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>1156</v>
       </c>
@@ -30666,7 +30666,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>1159</v>
       </c>
@@ -30695,7 +30695,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>1171</v>
       </c>
@@ -30721,7 +30721,7 @@
         <v>9806446</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>1172</v>
       </c>
@@ -30750,7 +30750,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>1173</v>
       </c>
@@ -30776,7 +30776,7 @@
         <v>2819152</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>1174</v>
       </c>
@@ -30805,7 +30805,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>1175</v>
       </c>
@@ -30834,7 +30834,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>1177</v>
       </c>
@@ -30863,7 +30863,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>1178</v>
       </c>
@@ -30892,7 +30892,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>1179</v>
       </c>
@@ -30921,7 +30921,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>1180</v>
       </c>
@@ -30950,7 +30950,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>1181</v>
       </c>
@@ -30979,7 +30979,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>1188</v>
       </c>
@@ -31008,7 +31008,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>1189</v>
       </c>
@@ -31037,7 +31037,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>1190</v>
       </c>
@@ -31063,7 +31063,7 @@
         <v>13864520</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>1191</v>
       </c>
@@ -31092,7 +31092,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>1192</v>
       </c>
@@ -31121,7 +31121,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>1193</v>
       </c>
@@ -31150,7 +31150,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>1194</v>
       </c>
@@ -31179,7 +31179,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>1195</v>
       </c>
@@ -31208,7 +31208,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>1196</v>
       </c>
@@ -31237,7 +31237,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>1198</v>
       </c>
@@ -31266,7 +31266,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>1199</v>
       </c>
@@ -31295,7 +31295,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>1200</v>
       </c>
@@ -31324,7 +31324,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>1201</v>
       </c>
@@ -31353,7 +31353,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>1202</v>
       </c>
@@ -31382,7 +31382,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>1207</v>
       </c>
@@ -31411,7 +31411,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>1208</v>
       </c>
@@ -31440,7 +31440,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>1211</v>
       </c>
@@ -31466,7 +31466,7 @@
         <v>2368822</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>1212</v>
       </c>
@@ -31495,7 +31495,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>1216</v>
       </c>
@@ -31524,7 +31524,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>1217</v>
       </c>
@@ -31553,7 +31553,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>1218</v>
       </c>
@@ -31579,7 +31579,7 @@
         <v>1228724</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>1219</v>
       </c>
@@ -31605,7 +31605,7 @@
         <v>112364</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>1221</v>
       </c>
@@ -31634,7 +31634,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>1226</v>
       </c>
@@ -31660,7 +31660,7 @@
         <v>510510</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>1227</v>
       </c>
@@ -31689,7 +31689,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>1228</v>
       </c>
@@ -31718,7 +31718,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>1229</v>
       </c>
@@ -31747,7 +31747,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>1230</v>
       </c>
@@ -31776,7 +31776,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>1231</v>
       </c>
@@ -31805,7 +31805,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>1238</v>
       </c>
@@ -31831,7 +31831,7 @@
         <v>7043616</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>1239</v>
       </c>
@@ -31857,7 +31857,7 @@
         <v>6222734</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>1240</v>
       </c>
@@ -31886,7 +31886,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>1242</v>
       </c>
@@ -31915,7 +31915,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>1243</v>
       </c>
@@ -31944,7 +31944,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>1244</v>
       </c>
@@ -31970,7 +31970,7 @@
         <v>4240376</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>1245</v>
       </c>
@@ -31999,7 +31999,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>1246</v>
       </c>
@@ -32028,7 +32028,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>1247</v>
       </c>
@@ -32057,7 +32057,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>1250</v>
       </c>
@@ -32083,7 +32083,7 @@
         <v>277948</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>1251</v>
       </c>
@@ -32112,7 +32112,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>1252</v>
       </c>
@@ -32141,7 +32141,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>1253</v>
       </c>
@@ -32167,7 +32167,7 @@
         <v>1018498</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
         <v>1254</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>1255</v>
       </c>
@@ -32225,7 +32225,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
         <v>1259</v>
       </c>
@@ -32254,7 +32254,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>1260</v>
       </c>
@@ -32283,7 +32283,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>1261</v>
       </c>
@@ -32309,7 +32309,7 @@
         <v>820882</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>1262</v>
       </c>
@@ -32338,7 +32338,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>1265</v>
       </c>
@@ -32367,7 +32367,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>1277</v>
       </c>
@@ -32393,7 +32393,7 @@
         <v>260398</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>1278</v>
       </c>
@@ -32422,7 +32422,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
         <v>1279</v>
       </c>
@@ -32451,7 +32451,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>1280</v>
       </c>
@@ -32480,7 +32480,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>1281</v>
       </c>
@@ -32509,7 +32509,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>1284</v>
       </c>
@@ -32535,7 +32535,7 @@
         <v>486112</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
         <v>1285</v>
       </c>
@@ -32564,7 +32564,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>1286</v>
       </c>
@@ -32593,7 +32593,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>1287</v>
       </c>
@@ -32622,7 +32622,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>1292</v>
       </c>
@@ -32648,7 +32648,7 @@
         <v>5959382</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>1293</v>
       </c>
@@ -32677,7 +32677,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>1295</v>
       </c>
@@ -32706,7 +32706,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>1296</v>
       </c>
@@ -32735,7 +32735,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
         <v>1299</v>
       </c>
@@ -32764,7 +32764,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
         <v>1300</v>
       </c>
@@ -32793,7 +32793,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
         <v>1301</v>
       </c>
@@ -32822,7 +32822,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
         <v>1302</v>
       </c>
@@ -32851,7 +32851,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
         <v>1303</v>
       </c>
